--- a/data/trans_camb/P57_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P57_R2-Edad-trans_camb.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,95; 33,36</t>
+          <t>14,38; 32,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,48; 24,05</t>
+          <t>6,58; 24,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,53; 26,57</t>
+          <t>13,54; 26,75</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,65; 83,17</t>
+          <t>31,06; 82,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,51; 59,89</t>
+          <t>14,32; 59,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,75; 64,4</t>
+          <t>29,52; 64,88</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,9; 28,0</t>
+          <t>12,42; 27,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 21,63</t>
+          <t>-6,77; 21,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,34; 21,52</t>
+          <t>4,1; 21,9</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>35,72; 91,12</t>
+          <t>35,44; 89,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,72; 63,49</t>
+          <t>-15,93; 62,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,8; 64,34</t>
+          <t>11,74; 66,13</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,26; 24,89</t>
+          <t>12,91; 24,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,61; 25,51</t>
+          <t>15,3; 25,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,13; 23,26</t>
+          <t>15,95; 23,56</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>36,21; 78,79</t>
+          <t>35,46; 82,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>46,42; 90,47</t>
+          <t>46,3; 92,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>46,17; 75,74</t>
+          <t>46,89; 78,92</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,78; 58,18</t>
+          <t>17,28; 57,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,83; 20,19</t>
+          <t>9,35; 20,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,78; 44,87</t>
+          <t>16,0; 45,82</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>65,1; 253,28</t>
+          <t>62,61; 245,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>33,54; 103,14</t>
+          <t>38,67; 104,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>62,55; 193,72</t>
+          <t>64,25; 201,39</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,02; 14,87</t>
+          <t>3,71; 15,07</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,62; 16,45</t>
+          <t>6,99; 16,22</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,9; 14,37</t>
+          <t>6,83; 14,4</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>13,27; 64,51</t>
+          <t>11,73; 64,7</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>27,92; 96,9</t>
+          <t>29,88; 99,24</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>27,45; 69,64</t>
+          <t>27,09; 70,43</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>8,53; 21,0</t>
+          <t>8,41; 20,55</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 18,25</t>
+          <t>-8,8; 18,57</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 17,16</t>
+          <t>-5,61; 17,47</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>29,56; 101,42</t>
+          <t>28,0; 95,56</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-52,72; 118,65</t>
+          <t>-43,82; 119,6</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-30,27; 88,26</t>
+          <t>-26,3; 90,96</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>7,3; 19,56</t>
+          <t>7,19; 19,81</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>6,79; 16,95</t>
+          <t>7,21; 17,34</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>8,76; 16,77</t>
+          <t>9,1; 16,88</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>30,4; 127,04</t>
+          <t>32,18; 129,52</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>37,99; 166,51</t>
+          <t>41,79; 175,81</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>49,14; 128,87</t>
+          <t>51,19; 135,49</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1251,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>15,54; 31,53</t>
+          <t>15,8; 32,13</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>4,58; 15,07</t>
+          <t>4,86; 15,1</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>11,92; 21,52</t>
+          <t>12,05; 22,01</t>
         </is>
       </c>
     </row>
@@ -1297,17 +1297,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>50,51; 106,45</t>
+          <t>51,38; 107,58</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>18,45; 57,71</t>
+          <t>18,02; 58,73</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>42,09; 77,01</t>
+          <t>42,34; 79,69</t>
         </is>
       </c>
     </row>
